--- a/data/交易记录/杠杆率.xlsx
+++ b/data/交易记录/杠杆率.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>手数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,30 @@
   </si>
   <si>
     <t>账户额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G19:N21"/>
+  <dimension ref="F19:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -409,7 +433,7 @@
     <col min="12" max="12" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="7:14">
+    <row r="19" spans="6:16">
       <c r="G19" t="s">
         <v>0</v>
       </c>
@@ -435,7 +459,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="7:14">
+    <row r="20" spans="6:16">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
@@ -464,7 +491,10 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="7:14">
+    <row r="21" spans="6:16">
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
@@ -491,6 +521,154 @@
       </c>
       <c r="N21">
         <v>0.1</v>
+      </c>
+      <c r="P21">
+        <f>M21*(5.925)</f>
+        <v>30011.310000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1909</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <f>G22*H22*I22</f>
+        <v>19090</v>
+      </c>
+      <c r="K22" s="1">
+        <f>M22/N22</f>
+        <v>19090</v>
+      </c>
+      <c r="L22">
+        <v>0.1</v>
+      </c>
+      <c r="M22">
+        <f>J22*L22</f>
+        <v>1909</v>
+      </c>
+      <c r="N22">
+        <v>0.1</v>
+      </c>
+      <c r="P22">
+        <f>M22*(5.94)</f>
+        <v>11339.460000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>49270</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <f>G23*H23*I23</f>
+        <v>246350</v>
+      </c>
+      <c r="K23" s="1">
+        <f>M23/N23</f>
+        <v>320255</v>
+      </c>
+      <c r="L23">
+        <v>0.13</v>
+      </c>
+      <c r="M23">
+        <f>J23*L23</f>
+        <v>32025.5</v>
+      </c>
+      <c r="N23">
+        <v>0.1</v>
+      </c>
+      <c r="P23">
+        <f>M23*(5.95)</f>
+        <v>190551.72500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>15765</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <f>G24*H24*I24</f>
+        <v>78825</v>
+      </c>
+      <c r="K24" s="1">
+        <f>M24/N24</f>
+        <v>94590</v>
+      </c>
+      <c r="L24">
+        <v>0.12</v>
+      </c>
+      <c r="M24">
+        <f>J24*L24</f>
+        <v>9459</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="P24">
+        <f>M24*(5.95)</f>
+        <v>56281.05</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2154</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <f>G25*H25*I25</f>
+        <v>215400</v>
+      </c>
+      <c r="K25" s="1">
+        <f>M25/N25</f>
+        <v>323100</v>
+      </c>
+      <c r="L25">
+        <v>0.15</v>
+      </c>
+      <c r="M25">
+        <f>J25*L25</f>
+        <v>32310</v>
+      </c>
+      <c r="N25">
+        <v>0.1</v>
+      </c>
+      <c r="P25">
+        <f>M25*(5.95)</f>
+        <v>192244.5</v>
       </c>
     </row>
   </sheetData>
